--- a/tools/Excel2Lua/sheet/language.xlsx
+++ b/tools/Excel2Lua/sheet/language.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>配置规则</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -85,14 +85,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>nu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiao</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>xihuan</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -113,14 +105,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>bang test'hahaha'\n\n</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cry</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>多语言表</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -138,6 +122,68 @@
   </si>
   <si>
     <t>英文</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码超长</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号超长</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码含有非法字符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号含有非法字符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号不存在</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知错误,错误码:%d</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求失败,请稍后再试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号不存在是否注册</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器列表拉取失败</t>
+  </si>
+  <si>
+    <t>服务器列表为空</t>
+  </si>
+  <si>
+    <t>连接服务器失败,是否重试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +250,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -324,6 +376,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -360,6 +413,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -658,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -703,12 +761,12 @@
     </row>
     <row r="8" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -716,10 +774,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -727,10 +785,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -738,7 +796,7 @@
         <v>11001</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -750,7 +808,7 @@
         <v>11002</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -762,7 +820,7 @@
         <v>11003</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -774,7 +832,7 @@
         <v>11004</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -786,7 +844,7 @@
         <v>11005</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -798,7 +856,7 @@
         <v>11006</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -810,7 +868,7 @@
         <v>11007</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -822,9 +880,304 @@
         <v>11008</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>20001</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <f>A20+1</f>
+        <v>20002</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
+        <v>20100</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <f>A22+1</f>
+        <v>20101</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
+        <f t="shared" ref="A24:A48" si="1">A23+1</f>
+        <v>20102</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
+        <f t="shared" si="1"/>
+        <v>20103</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <f t="shared" si="1"/>
+        <v>20104</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <f t="shared" si="1"/>
+        <v>20105</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <f t="shared" si="1"/>
+        <v>20106</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
+        <f t="shared" si="1"/>
+        <v>20107</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7">
+        <f t="shared" si="1"/>
+        <v>20108</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <f t="shared" si="1"/>
+        <v>20109</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
+        <f t="shared" si="1"/>
+        <v>20110</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <f t="shared" si="1"/>
+        <v>20111</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <f t="shared" si="1"/>
+        <v>20112</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <f t="shared" si="1"/>
+        <v>20113</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7">
+        <f t="shared" si="1"/>
+        <v>20114</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="7">
+        <f t="shared" si="1"/>
+        <v>20115</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7">
+        <f t="shared" si="1"/>
+        <v>20116</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="7">
+        <f t="shared" si="1"/>
+        <v>20117</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="7">
+        <f t="shared" si="1"/>
+        <v>20118</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
+        <f t="shared" si="1"/>
+        <v>20119</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="7">
+        <f t="shared" si="1"/>
+        <v>20120</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="7">
+        <f t="shared" si="1"/>
+        <v>20121</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="7">
+        <f t="shared" si="1"/>
+        <v>20122</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="7">
+        <f t="shared" si="1"/>
+        <v>20123</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="7">
+        <f t="shared" si="1"/>
+        <v>20124</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="7">
+        <f t="shared" si="1"/>
+        <v>20125</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="7">
+        <f t="shared" si="1"/>
+        <v>20126</v>
+      </c>
+      <c r="C48" s="7">
         <v>1</v>
       </c>
     </row>

--- a/tools/Excel2Lua/sheet/language.xlsx
+++ b/tools/Excel2Lua/sheet/language.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>配置规则</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -85,14 +85,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>xihuan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>han</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>yun</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -184,6 +176,21 @@
   </si>
   <si>
     <t>连接服务器失败,是否重试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有找到玩家信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>有多个玩家信息</t>
+  </si>
+  <si>
+    <t>账号在其他地方登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将退出游戏,错误代码:%d</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +726,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -761,12 +768,12 @@
     </row>
     <row r="8" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -774,10 +781,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -785,10 +792,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -796,7 +803,7 @@
         <v>11001</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -808,7 +815,7 @@
         <v>11002</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -820,7 +827,7 @@
         <v>11003</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -832,7 +839,7 @@
         <v>11004</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -844,7 +851,7 @@
         <v>11005</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -856,7 +863,7 @@
         <v>11006</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -868,7 +875,7 @@
         <v>11007</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -880,7 +887,7 @@
         <v>11008</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -891,7 +898,7 @@
         <v>20001</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -903,7 +910,7 @@
         <v>20002</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -914,7 +921,7 @@
         <v>20100</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -926,7 +933,7 @@
         <v>20101</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -938,7 +945,7 @@
         <v>20102</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -950,7 +957,7 @@
         <v>20103</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -962,7 +969,7 @@
         <v>20104</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -974,7 +981,7 @@
         <v>20105</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -986,7 +993,7 @@
         <v>20106</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
@@ -998,7 +1005,7 @@
         <v>20107</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -1010,7 +1017,7 @@
         <v>20108</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -1022,7 +1029,7 @@
         <v>20109</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -1033,6 +1040,9 @@
         <f t="shared" si="1"/>
         <v>20110</v>
       </c>
+      <c r="B32" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
@@ -1041,6 +1051,9 @@
       <c r="A33" s="7">
         <f t="shared" si="1"/>
         <v>20111</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>

--- a/tools/Excel2Lua/sheet/language.xlsx
+++ b/tools/Excel2Lua/sheet/language.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>配置规则</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -191,6 +191,10 @@
   </si>
   <si>
     <t>即将退出游戏,错误代码:%d</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>令牌已过期,请重新登录</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +730,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1064,6 +1068,9 @@
         <f t="shared" si="1"/>
         <v>20112</v>
       </c>
+      <c r="B34" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>

--- a/tools/Excel2Lua/sheet/language.xlsx
+++ b/tools/Excel2Lua/sheet/language.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>配置规则</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -195,6 +195,152 @@
   </si>
   <si>
     <t>令牌已过期,请重新登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业未开放</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入昵称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称过短</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称过长</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称含有非法字符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知错误</t>
+  </si>
+  <si>
+    <t>找不到对应目标</t>
+  </si>
+  <si>
+    <t>该目标已过期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标已存在</t>
+  </si>
+  <si>
+    <t>服务器内部错误</t>
+  </si>
+  <si>
+    <t>token错误</t>
+  </si>
+  <si>
+    <t>职业不存在</t>
+  </si>
+  <si>
+    <t>内存不足</t>
+  </si>
+  <si>
+    <t>参数错误</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称字符串过短</t>
+  </si>
+  <si>
+    <t>昵称字符串过长</t>
+  </si>
+  <si>
+    <t>昵称字符串含有非法字符</t>
+  </si>
+  <si>
+    <t>昵称重复</t>
+  </si>
+  <si>
+    <t>账号不存在</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>角色不存在</t>
+  </si>
+  <si>
+    <t>网关连接失败</t>
+  </si>
+  <si>
+    <t>找不到战斗ID</t>
+  </si>
+  <si>
+    <t>服务端战斗初始化失败</t>
+  </si>
+  <si>
+    <t>服务端战斗找不到对应玩家</t>
+  </si>
+  <si>
+    <t>此玩家已经在战斗中</t>
+  </si>
+  <si>
+    <t>玩家数量过多</t>
+  </si>
+  <si>
+    <t>玩家ID有重复的</t>
+  </si>
+  <si>
+    <t>玩家被踢出游戏</t>
+  </si>
+  <si>
+    <t>客户端帧数有问题</t>
+  </si>
+  <si>
+    <t>服务端操作记录无法追溯到对应帧</t>
+  </si>
+  <si>
+    <t>战斗服繁忙</t>
+  </si>
+  <si>
+    <t>游戏服没有可分配的战斗服</t>
+  </si>
+  <si>
+    <t>战斗服不存在</t>
+  </si>
+  <si>
+    <t>玩家登录游戏服时,服务器查询到该账号有多个玩家信息</t>
+  </si>
+  <si>
+    <t>玩家断线重连,服务器让客户端进入登录界面重新登录</t>
+  </si>
+  <si>
+    <t>找不到对应玩家数据</t>
+  </si>
+  <si>
+    <t>退出游戏,此账号在其他地方被人登录</t>
+  </si>
+  <si>
+    <t>退出游戏,客户端与服务器连接中断</t>
+  </si>
+  <si>
+    <t>退出游戏,客户端主动请求退出游戏</t>
+  </si>
+  <si>
+    <t>pvp匹配中</t>
+  </si>
+  <si>
+    <t>pvp匹配超时</t>
+  </si>
+  <si>
+    <t>pvp匹配成功</t>
+  </si>
+  <si>
+    <t>pvp匹配成功后没有战斗服分配</t>
+  </si>
+  <si>
+    <t>pvp匹配成功后对手取消战斗</t>
+  </si>
+  <si>
+    <t>服务器过载</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +407,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +433,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -388,6 +540,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -727,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1080,6 +1233,9 @@
         <f t="shared" si="1"/>
         <v>20113</v>
       </c>
+      <c r="B35" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C35" s="7">
         <v>1</v>
       </c>
@@ -1089,6 +1245,9 @@
         <f t="shared" si="1"/>
         <v>20114</v>
       </c>
+      <c r="B36" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C36" s="7">
         <v>1</v>
       </c>
@@ -1098,6 +1257,9 @@
         <f t="shared" si="1"/>
         <v>20115</v>
       </c>
+      <c r="B37" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="C37" s="7">
         <v>1</v>
       </c>
@@ -1107,6 +1269,9 @@
         <f t="shared" si="1"/>
         <v>20116</v>
       </c>
+      <c r="B38" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
@@ -1116,6 +1281,9 @@
         <f t="shared" si="1"/>
         <v>20117</v>
       </c>
+      <c r="B39" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="C39" s="7">
         <v>1</v>
       </c>
@@ -1199,6 +1367,334 @@
       </c>
       <c r="C48" s="7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="8">
+        <v>100001</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
+        <v>100002</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="8">
+        <v>100003</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="8">
+        <v>100004</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <v>100005</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
+        <v>100006</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
+        <v>100007</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
+        <v>100100</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="8">
+        <v>100101</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="8">
+        <v>100102</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
+        <v>100200</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="8">
+        <v>100201</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="8">
+        <v>100202</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="8">
+        <v>100203</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="8">
+        <v>200000</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="8">
+        <v>200001</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="8">
+        <v>200002</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="8">
+        <v>200100</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="8">
+        <v>210000</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="8">
+        <v>210001</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="8">
+        <v>210002</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="8">
+        <v>210003</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="8">
+        <v>210004</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="8">
+        <v>210005</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="8">
+        <v>210006</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="8">
+        <v>210007</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="8">
+        <v>210008</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="8">
+        <v>210100</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="8">
+        <v>210101</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="8">
+        <v>210102</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="8">
+        <v>220001</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="8">
+        <v>220002</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="8">
+        <v>220003</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="8">
+        <v>220010</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="8">
+        <v>220011</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="8">
+        <v>220012</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="8">
+        <v>220030</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="8">
+        <v>220031</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="8">
+        <v>220032</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="8">
+        <v>220033</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="8">
+        <v>220034</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/tools/Excel2Lua/sheet/language.xlsx
+++ b/tools/Excel2Lua/sheet/language.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>配置规则</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -342,6 +342,9 @@
   <si>
     <t>服务器过载</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗服连接失败</t>
   </si>
 </sst>
 </file>
@@ -882,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1293,6 +1296,9 @@
         <f t="shared" si="1"/>
         <v>20118</v>
       </c>
+      <c r="B40" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="C40" s="7">
         <v>1</v>
       </c>
